--- a/Monk-manuscript/reef_areas.xlsx
+++ b/Monk-manuscript/reef_areas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF401DD9-3ECC-4394-BEF1-480AF715CBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9541B2-DFA1-49C4-9368-9DA50C73BE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19580" windowHeight="7230" xr2:uid="{50D88F75-490B-4A1E-A3D3-96979C9DECCF}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t xml:space="preserve"> Morro Bay to Point Conception </t>
   </si>
   <si>
-    <t xml:space="preserve"> Deeper rocky habitat </t>
-  </si>
-  <si>
     <t>China rockfish</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> California border to San Francisco</t>
+  </si>
+  <si>
+    <t>Farallon Islands</t>
   </si>
 </sst>
 </file>
@@ -416,11 +416,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6328125" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -433,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -442,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -450,7 +451,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>439.54599999999999</v>
@@ -469,7 +470,7 @@
       </c>
       <c r="F2">
         <f>SUM($B$2:$B$5)</f>
-        <v>685.57299999999998</v>
+        <v>735.82500000000005</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -484,40 +485,40 @@
         <v>108.42400000000001</v>
       </c>
       <c r="D3">
-        <f>SUM(B3,B4)</f>
-        <v>158.67600000000002</v>
+        <f>$C$3+$C$4</f>
+        <v>498.96699999999998</v>
       </c>
       <c r="E3">
         <f>B2+B3</f>
         <v>547.97</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">SUM($B$2:$B$5)</f>
-        <v>685.57299999999998</v>
+        <f>SUM($B$2:$B$5)</f>
+        <v>735.82500000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>50.252000000000002</v>
       </c>
       <c r="C4" s="1">
         <f>SUM($B$4:$B$7)</f>
-        <v>340.291</v>
+        <v>390.54300000000001</v>
       </c>
       <c r="D4">
-        <f>D3</f>
-        <v>158.67600000000002</v>
+        <f>$C$3+$C$4</f>
+        <v>498.96699999999998</v>
       </c>
       <c r="E4">
         <f>B4</f>
         <v>50.252000000000002</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>685.57299999999998</v>
+        <f t="shared" ref="F4:F5" si="1">SUM($B$2:$B$5)</f>
+        <v>735.82500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -525,23 +526,23 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>87.350999999999999</v>
+        <v>137.60300000000001</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="2">SUM($B$4:$B$7)</f>
-        <v>340.291</v>
+        <f>SUM($B$4:$B$7)</f>
+        <v>390.54300000000001</v>
       </c>
       <c r="D5">
         <f>SUM($B$5:$B$6)</f>
-        <v>177.77500000000001</v>
+        <v>228.02700000000002</v>
       </c>
       <c r="E5">
         <f>B5</f>
-        <v>87.350999999999999</v>
+        <v>137.60300000000001</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>685.57299999999998</v>
+        <v>735.82500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -552,12 +553,12 @@
         <v>90.424000000000007</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>340.291</v>
+        <f t="shared" ref="C6:C7" si="2">SUM($B$4:$B$7)</f>
+        <v>390.54300000000001</v>
       </c>
       <c r="D6">
         <f>SUM($B$5:$B$6)</f>
-        <v>177.77500000000001</v>
+        <v>228.02700000000002</v>
       </c>
       <c r="E6">
         <f>B6+B7</f>
@@ -577,7 +578,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>340.291</v>
+        <v>390.54300000000001</v>
       </c>
       <c r="D7">
         <f>B7</f>

--- a/Monk-manuscript/reef_areas.xlsx
+++ b/Monk-manuscript/reef_areas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9541B2-DFA1-49C4-9368-9DA50C73BE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA3A02-710D-4CCA-AB74-C6E9B3D3FCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19580" windowHeight="7230" xr2:uid="{50D88F75-490B-4A1E-A3D3-96979C9DECCF}"/>
+    <workbookView xWindow="-23655" yWindow="14865" windowWidth="20970" windowHeight="12525" xr2:uid="{50D88F75-490B-4A1E-A3D3-96979C9DECCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,47 +20,53 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve"> Rocky Reef Desginations </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black rockfish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brown rockfish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gopher rockfish </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> San Francisco to Santa Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Moss Landing to Big Sur </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big Sur to Morro Bay </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Morro Bay to Point Conception </t>
-  </si>
-  <si>
-    <t>China rockfish</t>
-  </si>
-  <si>
-    <t>Blue rockfish &amp; Vermilion rockfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> California border to San Francisco</t>
-  </si>
-  <si>
-    <t>Farallon Islands</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Area within state waters</t>
+  </si>
+  <si>
+    <t>Area of rocky habitat</t>
+  </si>
+  <si>
+    <t>Area within MPAs</t>
+  </si>
+  <si>
+    <t>Area of rocky habitat in MPAs</t>
+  </si>
+  <si>
+    <t>CRFS District</t>
+  </si>
+  <si>
+    <t>Point Conception through Santa Cruz County</t>
+  </si>
+  <si>
+    <t>San Francico Bay Area counties through Sonoma County</t>
+  </si>
+  <si>
+    <t>Mendocino county to the 40-10 line</t>
+  </si>
+  <si>
+    <t>40-10 management line to the California/Oregon border</t>
+  </si>
+  <si>
+    <t>Area description</t>
+  </si>
+  <si>
+    <t>2 and 3</t>
   </si>
 </sst>
 </file>
@@ -416,182 +422,98 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.62890625" customWidth="1"/>
+    <col min="4" max="4" width="17.9453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>439.54599999999999</v>
-      </c>
-      <c r="C2">
-        <f>B2</f>
-        <v>439.54599999999999</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <f>B2</f>
-        <v>439.54599999999999</v>
-      </c>
-      <c r="E2">
-        <f>B2+B3</f>
-        <v>547.97</v>
+        <v>315.91051200644193</v>
       </c>
       <c r="F2">
-        <f>SUM($B$2:$B$5)</f>
-        <v>735.82500000000005</v>
+        <v>74.940977706092596</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>108.42400000000001</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3" si="0">B3</f>
-        <v>108.42400000000001</v>
-      </c>
-      <c r="D3">
-        <f>$C$3+$C$4</f>
-        <v>498.96699999999998</v>
-      </c>
-      <c r="E3">
-        <f>B2+B3</f>
-        <v>547.97</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>271.27883310562845</v>
       </c>
       <c r="F3">
-        <f>SUM($B$2:$B$5)</f>
-        <v>735.82500000000005</v>
+        <v>70.604455103823526</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>50.252000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUM($B$4:$B$7)</f>
-        <v>390.54300000000001</v>
-      </c>
-      <c r="D4">
-        <f>$C$3+$C$4</f>
-        <v>498.96699999999998</v>
-      </c>
-      <c r="E4">
-        <f>B4</f>
-        <v>50.252000000000002</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>136.93766979978241</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="1">SUM($B$2:$B$5)</f>
-        <v>735.82500000000005</v>
+        <v>23.960992483247399</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>137.60300000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <f>SUM($B$4:$B$7)</f>
-        <v>390.54300000000001</v>
-      </c>
-      <c r="D5">
-        <f>SUM($B$5:$B$6)</f>
-        <v>228.02700000000002</v>
-      </c>
-      <c r="E5">
-        <f>B5</f>
-        <v>137.60300000000001</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>164.191309144614</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>735.82500000000005</v>
+        <v>32.623860147191195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>90.424000000000007</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C7" si="2">SUM($B$4:$B$7)</f>
-        <v>390.54300000000001</v>
-      </c>
-      <c r="D6">
-        <f>SUM($B$5:$B$6)</f>
-        <v>228.02700000000002</v>
-      </c>
-      <c r="E6">
-        <f>B6+B7</f>
-        <v>202.68799999999999</v>
-      </c>
-      <c r="F6">
-        <f>B6</f>
-        <v>90.424000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>112.264</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>390.54300000000001</v>
-      </c>
-      <c r="D7">
-        <f>B7</f>
-        <v>112.264</v>
-      </c>
-      <c r="E7">
-        <f>B6+B7</f>
-        <v>202.68799999999999</v>
-      </c>
-      <c r="F7">
-        <f>B7</f>
-        <v>112.264</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
